--- a/A.xlsx
+++ b/A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\magic_merge_excel_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F975503-8948-40FE-A837-06ED42912A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D066F17-DF19-49E7-887A-181FAC71204A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="科目別管理コード明細表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目別管理コード明細表!$A$1:$K$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">科目別管理コード明細表!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -5152,10 +5153,10 @@
     <t>商標権償却</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>発生</t>
+  </si>
+  <si>
+    <t>zzzzzz</t>
   </si>
 </sst>
 </file>
@@ -5238,7 +5239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5250,6 +5251,9 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5588,7 +5592,7 @@
   <dimension ref="A1:K1018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5633,7 +5637,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -41212,11 +41216,11 @@
       <c r="D1018" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="E1018" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F1018" s="1" t="s">
-        <v>1709</v>
+      <c r="E1018" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F1018" s="4" t="s">
+        <v>1710</v>
       </c>
       <c r="G1018" s="3">
         <v>17008</v>
@@ -41235,6 +41239,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape"/>

--- a/A.xlsx
+++ b/A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\magic_merge_excel_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Fast_Merge_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D066F17-DF19-49E7-887A-181FAC71204A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F117A-EE47-4480-979B-A928F41E9E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6113" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6111" uniqueCount="1710">
   <si>
     <t>部門コード</t>
   </si>
@@ -5154,9 +5154,6 @@
   </si>
   <si>
     <t>発生</t>
-  </si>
-  <si>
-    <t>zzzzzz</t>
   </si>
 </sst>
 </file>
@@ -5591,8 +5588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A1017" workbookViewId="0">
+      <selection activeCell="F1018" sqref="F1018"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -41216,12 +41213,8 @@
       <c r="D1018" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="E1018" s="4" t="s">
-        <v>1710</v>
-      </c>
-      <c r="F1018" s="4" t="s">
-        <v>1710</v>
-      </c>
+      <c r="E1018" s="4"/>
+      <c r="F1018" s="4"/>
       <c r="G1018" s="3">
         <v>17008</v>
       </c>
